--- a/medicine/Sexualité et sexologie/Sauvage_(film,_2018)/Sauvage_(film,_2018).xlsx
+++ b/medicine/Sexualité et sexologie/Sauvage_(film,_2018)/Sauvage_(film,_2018).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauvage est un drame français écrit et réalisé par Camille Vidal-Naquet, sorti en 2018. Il s’agit de son premier long métrage.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léo, un jeune homme de vingt-deux ans se prostitue dans la rue où défilent les hommes.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Sauvage
 Titre international : Savage
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Félix Maritaud : Léo
 Farid-Éric Bernard : Ahd
@@ -629,10 +647,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Genèse et développement
-Camille Vidal-Naquet effectue pour le film un travail de documentation sur le terrain en se rendant au Bois de Boulogne et en y rencontrant des prostitués grâce à une association[1].
+Camille Vidal-Naquet effectue pour le film un travail de documentation sur le terrain en se rendant au Bois de Boulogne et en y rencontrant des prostitués grâce à une association.
 </t>
         </is>
       </c>
@@ -661,7 +681,9 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Festival et sortie
 Sauvage est sélectionné dans la « Semaine de la critique » en compétition pour la Caméra d'or et la Queer Palm et projeté le 10 mai 2018 au Festival de Cannes. Sa sortie nationale est prévue le 29 août 2018 en France.
@@ -695,14 +717,87 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival de Cannes 2018 : Prix Louis Roederer de la révélation pour Félix Maritaud
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2018 : Prix Louis Roederer de la révélation pour Félix Maritaud
 Festival du film francophone d'Angoulême 2018 : Valois du meilleur acteur pour Félix Maritaud
-Rencontres In&amp;Out 2018 : Esperluette du meilleur long métrage et Prix KLM – Meilleur long métrage
-Sélections
-Festival de Cannes 2018 : sélection « Semaine de la critique » ; en compétition pour la Caméra d'or et la Queer Palm
-Nominations
-César 2019 :
+Rencontres In&amp;Out 2018 : Esperluette du meilleur long métrage et Prix KLM – Meilleur long métrage</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sauvage_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauvage_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2018 : sélection « Semaine de la critique » ; en compétition pour la Caméra d'or et la Queer Palm</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sauvage_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauvage_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>César 2019 :
 César du meilleur premier film pour Camille Vidal-Naquet</t>
         </is>
       </c>
